--- a/氣象性能評估工具V2/data/obs/2016-06-20_T2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/2016-06-20_T2_obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="211">
   <si>
     <t>times</t>
   </si>
@@ -91,12 +91,12 @@
     <t>恆春</t>
   </si>
   <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>2016-06-20-00</t>
   </si>
   <si>
-    <t>21.8</t>
-  </si>
-  <si>
     <t>27.1</t>
   </si>
   <si>
@@ -166,12 +166,12 @@
     <t>28.8</t>
   </si>
   <si>
+    <t>22.2</t>
+  </si>
+  <si>
     <t>2016-06-20-01</t>
   </si>
   <si>
-    <t>22.2</t>
-  </si>
-  <si>
     <t>23.2</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>27.9</t>
   </si>
   <si>
+    <t>20.5</t>
+  </si>
+  <si>
     <t>2016-06-20-03</t>
   </si>
   <si>
-    <t>20.5</t>
-  </si>
-  <si>
     <t>26.8</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>6.4</t>
   </si>
   <si>
+    <t>20.4</t>
+  </si>
+  <si>
     <t>2016-06-20-04</t>
   </si>
   <si>
-    <t>20.4</t>
-  </si>
-  <si>
     <t>23.1</t>
   </si>
   <si>
@@ -301,12 +301,12 @@
     <t>7.7</t>
   </si>
   <si>
+    <t>23.3</t>
+  </si>
+  <si>
     <t>2016-06-20-06</t>
   </si>
   <si>
-    <t>23.3</t>
-  </si>
-  <si>
     <t>28.7</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>7.9</t>
   </si>
   <si>
+    <t>24.4</t>
+  </si>
+  <si>
     <t>2016-06-20-07</t>
   </si>
   <si>
-    <t>24.4</t>
-  </si>
-  <si>
     <t>29.7</t>
   </si>
   <si>
@@ -523,12 +523,12 @@
     <t>9.9</t>
   </si>
   <si>
+    <t>23.9</t>
+  </si>
+  <si>
     <t>2016-06-20-14</t>
   </si>
   <si>
-    <t>23.9</t>
-  </si>
-  <si>
     <t>14.4</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>30.1</t>
   </si>
   <si>
+    <t>23.5</t>
+  </si>
+  <si>
     <t>2016-06-20-17</t>
   </si>
   <si>
-    <t>23.5</t>
-  </si>
-  <si>
     <t>25.2</t>
   </si>
   <si>
@@ -595,12 +595,12 @@
     <t>6.6</t>
   </si>
   <si>
+    <t>23.6</t>
+  </si>
+  <si>
     <t>2016-06-20-20</t>
   </si>
   <si>
-    <t>23.6</t>
-  </si>
-  <si>
     <t>23.7</t>
   </si>
   <si>
@@ -613,10 +613,10 @@
     <t>29.2</t>
   </si>
   <si>
+    <t>22.4</t>
+  </si>
+  <si>
     <t>2016-06-20-21</t>
-  </si>
-  <si>
-    <t>22.4</t>
   </si>
   <si>
     <t>20.6</t>
@@ -653,6 +653,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd-hh"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -682,8 +685,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,11 +1066,11 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1139,11 +1143,11 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1216,7 +1220,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B4" t="s">
@@ -1293,11 +1297,11 @@
       </c>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -1370,11 +1374,11 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
       </c>
       <c r="C6" t="s">
         <v>54</v>
@@ -1447,7 +1451,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B7" t="s">
@@ -1524,11 +1528,11 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -1567,7 +1571,7 @@
         <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P8" t="s">
         <v>99</v>
@@ -1601,11 +1605,11 @@
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
       </c>
       <c r="C9" t="s">
         <v>103</v>
@@ -1678,7 +1682,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B10" t="s">
@@ -1755,7 +1759,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B11" t="s">
@@ -1832,7 +1836,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B12" t="s">
@@ -1909,7 +1913,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B13" t="s">
@@ -1986,7 +1990,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B14" t="s">
@@ -2063,11 +2067,11 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>108</v>
@@ -2140,11 +2144,11 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" t="s">
         <v>169</v>
-      </c>
-      <c r="B16" t="s">
-        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>106</v>
@@ -2217,7 +2221,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B17" t="s">
@@ -2294,7 +2298,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B18" t="s">
@@ -2371,11 +2375,11 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
         <v>182</v>
-      </c>
-      <c r="B19" t="s">
-        <v>183</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
@@ -2448,7 +2452,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B20" t="s">
@@ -2525,7 +2529,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B21" t="s">
@@ -2535,7 +2539,7 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -2602,11 +2606,11 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
         <v>193</v>
-      </c>
-      <c r="B22" t="s">
-        <v>194</v>
       </c>
       <c r="C22" t="s">
         <v>63</v>
@@ -2679,11 +2683,11 @@
       </c>
     </row>
     <row r="23" spans="1:25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
         <v>199</v>
-      </c>
-      <c r="B23" t="s">
-        <v>200</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
@@ -2756,17 +2760,17 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
@@ -2833,17 +2837,17 @@
       </c>
     </row>
     <row r="25" spans="1:25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E25" t="s">
         <v>45</v>
